--- a/sriramModel-nelson-melancholic-patientID_60-sims-cort-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-cort-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.922182023569262</v>
+        <v>6.894784907723459</v>
       </c>
       <c r="C2">
-        <v>6.855310012351444</v>
+        <v>6.864588768445359</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.93836246815732</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>6.924927679095224</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6.909473757710071</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.133437288631795</v>
+        <v>7.08289799274224</v>
       </c>
       <c r="C3">
-        <v>7.00483376152069</v>
+        <v>7.024790890172766</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7.16512301261734</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7.139245284845556</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>7.108600107214232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.334507136489241</v>
+        <v>7.264762443351238</v>
       </c>
       <c r="C4">
-        <v>7.149019617361096</v>
+        <v>7.180892074117311</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>7.381086370587449</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7.343686168412178</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>7.298063620173301</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.526095611676516</v>
+        <v>7.440783435164537</v>
       </c>
       <c r="C5">
-        <v>7.288297916980995</v>
+        <v>7.333167350381382</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>7.587016454416304</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>7.538948087174694</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7.478518858092699</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.708871516774821</v>
+        <v>7.611349279898397</v>
       </c>
       <c r="C6">
-        <v>7.423081941970517</v>
+        <v>7.48188162637271</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7.783638922920867</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>7.725693382644661</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>7.650590475306133</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.883470436186469</v>
+        <v>7.776832160017488</v>
       </c>
       <c r="C7">
-        <v>7.553768561894757</v>
+        <v>7.627290309285483</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>7.971642634849105</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>7.904551453211848</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>7.8148749800401</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.050496377504771</v>
+        <v>7.937588739220372</v>
       </c>
       <c r="C8">
-        <v>7.680739157556651</v>
+        <v>7.769639460710573</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8.151681890946351</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>8.076120796436884</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>7.971942514957489</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.210523427466047</v>
+        <v>8.093960724537171</v>
       </c>
       <c r="C9">
-        <v>7.804360258825818</v>
+        <v>7.909166217590118</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>8.324378088389995</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8.240970074694072</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>8.122337638641246</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.364097304000014</v>
+        <v>8.246275341385607</v>
       </c>
       <c r="C10">
-        <v>7.924984149373571</v>
+        <v>8.046098680147249</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>8.490321136060597</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>8.399639614444039</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>8.266580447710437</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.511736809455829</v>
+        <v>8.394846030299732</v>
       </c>
       <c r="C11">
-        <v>8.042949474354744</v>
+        <v>8.180656934887462</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>8.650071002577363</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>8.55264291221553</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>8.405167764641613</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.653935123361933</v>
+        <v>8.539973153547839</v>
       </c>
       <c r="C12">
-        <v>8.158581796025405</v>
+        <v>8.31305300211721</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>8.80415925493233</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>8.700467841192671</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8.538574166011745</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.791161151071226</v>
+        <v>8.681944420188973</v>
       </c>
       <c r="C13">
-        <v>8.27219412068083</v>
+        <v>8.443491082804156</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>8.953090455453813</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>8.84357792474529</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>8.667252898070078</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.923860752186588</v>
+        <v>8.821035275608404</v>
       </c>
       <c r="C14">
-        <v>8.384087374922208</v>
+        <v>8.572167824862193</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9.097343492114449</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>8.982413508718901</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>8.791636844762966</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.052457845478397</v>
+        <v>8.957509397346145</v>
       </c>
       <c r="C15">
-        <v>8.494550839789536</v>
+        <v>8.699272616594879</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>9.237372935965414</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>9.117393023894321</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>8.91213953029669</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.177355461156143</v>
+        <v>9.091619206896139</v>
       </c>
       <c r="C16">
-        <v>8.603862626631571</v>
+        <v>8.824987850226442</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>9.373610134887084</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>9.248913507314024</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>9.029155636737993</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.298936780756144</v>
+        <v>9.223606331824618</v>
       </c>
       <c r="C17">
-        <v>8.712290061797301</v>
+        <v>8.949489151149018</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9.506464360063847</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>9.377352184332393</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>9.143062048885762</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.417566127542303</v>
+        <v>9.353702006266843</v>
       </c>
       <c r="C18">
-        <v>8.820090037387299</v>
+        <v>9.072945599110097</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>9.636323887169601</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>9.503067420469819</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>9.254218768564094</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.533589863338497</v>
+        <v>9.482127446891973</v>
       </c>
       <c r="C19">
-        <v>8.927509348132665</v>
+        <v>9.195519980511031</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>9.763557038458819</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>9.626399471933054</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>9.362969579113871</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.647337223121102</v>
+        <v>9.609094225057277</v>
       </c>
       <c r="C20">
-        <v>9.03478500931724</v>
+        <v>9.317368873335466</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>9.888513159260265</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>9.747671242289604</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>9.469642606100432</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.759121135080088</v>
+        <v>9.734804622083461</v>
       </c>
       <c r="C21">
-        <v>9.142144530704677</v>
+        <v>9.438642931819889</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>10.01152356099548</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>9.867189156159101</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>9.574551012158699</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.869238996779632</v>
+        <v>9.85945197806836</v>
       </c>
       <c r="C22">
-        <v>9.249806191364323</v>
+        <v>9.559487053834546</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>10.13290239459906</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>9.985244012281859</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>9.677993670865284</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.97797340147901</v>
+        <v>9.983220993932013</v>
       </c>
       <c r="C23">
-        <v>9.35797922651356</v>
+        <v>9.680040481182685</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10.25294749773265</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>10.10211168889357</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>9.780255803456964</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.08559281361076</v>
+        <v>10.10628799754744</v>
       </c>
       <c r="C24">
-        <v>9.466864002097017</v>
+        <v>9.800437093907773</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>10.37194117315792</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>10.2180539002063</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>9.881609493677146</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.19235219700867</v>
+        <v>10.22882127905023</v>
       </c>
       <c r="C25">
-        <v>9.576652149631522</v>
+        <v>9.920805409351054</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>10.49015093947747</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>10.33331880515284</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9.98231432204156</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>10.29849360739246</v>
+        <v>10.35098120879113</v>
       </c>
       <c r="C26">
-        <v>9.68752666297509</v>
+        <v>10.04126875768766</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10.60783025296606</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>10.44814155672066</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>10.08261777980424</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>10.40424674516126</v>
+        <v>10.47292053520066</v>
       </c>
       <c r="C27">
-        <v>9.799661935869437</v>
+        <v>10.16194531072344</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10.72521917642717</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>10.56274504816801</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10.18275584695505</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>10.50982946769173</v>
+        <v>10.59478453068147</v>
       </c>
       <c r="C28">
-        <v>9.913223742857696</v>
+        <v>10.28294816817602</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10.84254503113988</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>10.67734022773996</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>10.28295332155673</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>10.61544824919768</v>
+        <v>10.71671111227284</v>
       </c>
       <c r="C29">
-        <v>10.02836916219027</v>
+        <v>10.40438541116353</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>10.96002297444392</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>10.79212672035553</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>10.38342428247247</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10.72129859949038</v>
+        <v>10.83883102250337</v>
       </c>
       <c r="C30">
-        <v>10.14524641609015</v>
+        <v>10.52636011877116</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>11.07785656850942</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>10.90729330330507</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>10.48437250034979</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>10.82756543236682</v>
+        <v>10.96126785357065</v>
       </c>
       <c r="C31">
-        <v>10.26399467277857</v>
+        <v>10.6489703277356</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>11.1962383060323</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>11.02301829711832</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>10.58599171381345</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>10.93442338314416</v>
+        <v>11.08413806058379</v>
       </c>
       <c r="C32">
-        <v>10.38474368349588</v>
+        <v>10.77230897374231</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>11.31535010051522</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>11.13946993059095</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>10.68846598366376</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>11.04203707912394</v>
+        <v>11.20755105376177</v>
       </c>
       <c r="C33">
-        <v>10.5076133746466</v>
+        <v>10.89646380260468</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>11.43536374088907</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>11.25680674191562</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>10.79196998728926</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>11.1505613404002</v>
+        <v>11.33160900957768</v>
       </c>
       <c r="C34">
-        <v>10.63271329991633</v>
+        <v>11.0215171417089</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>11.55644128850312</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>11.37517776793733</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>10.89666916860005</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>11.26014131726131</v>
+        <v>11.45640679693625</v>
       </c>
       <c r="C35">
-        <v>10.76014199383642</v>
+        <v>11.14754567659298</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>11.67873544892009</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>11.49472277042986</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>11.00271997668351</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>11.37091255349693</v>
+        <v>11.58203189057438</v>
       </c>
       <c r="C36">
-        <v>10.88998614922695</v>
+        <v>11.27462025232457</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>11.80238988355363</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>11.61557247641417</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>11.11026999007907</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>11.48300096803942</v>
+        <v>11.70856396015843</v>
       </c>
       <c r="C37">
-        <v>11.02231961777037</v>
+        <v>11.4028053057819</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>11.92753948535584</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>11.73784858708687</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>11.21945791192376</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>11.59652275094825</v>
+        <v>11.8360747673878</v>
       </c>
       <c r="C38">
-        <v>11.15720227514881</v>
+        <v>11.53215843513533</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>12.0543105619746</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>11.86166383789769</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>11.33041371378669</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>11.71158414170197</v>
+        <v>11.96462755917562</v>
       </c>
       <c r="C39">
-        <v>11.29467865825514</v>
+        <v>11.66272979318092</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>12.18282096211119</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>11.98712185487077</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>11.44325838170309</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>11.82828109770374</v>
+        <v>12.09427667675664</v>
       </c>
       <c r="C40">
-        <v>11.43477650909026</v>
+        <v>11.79456134947703</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>12.31318010648816</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>12.11431698258478</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>11.55810382212018</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>11.94669882553496</v>
+        <v>12.22506701284238</v>
       </c>
       <c r="C41">
-        <v>11.57750491858153</v>
+        <v>11.92768598660862</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>12.44548884436381</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>12.24333399212897</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>11.67505260619347</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>12.06691115978411</v>
+        <v>12.35703334497219</v>
       </c>
       <c r="C42">
-        <v>11.72285240881381</v>
+        <v>12.06212642650052</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>12.57983922780917</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>12.37424760451112</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>11.79419757503758</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>12.1889797694458</v>
+        <v>12.49019957745967</v>
       </c>
       <c r="C43">
-        <v>11.87078477454197</v>
+        <v>12.19789398135522</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>12.716314067934</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>12.5071218194122</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>11.91562128944459</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>12.31295317042418</v>
+        <v>12.62457786226379</v>
       </c>
       <c r="C44">
-        <v>12.02124287008964</v>
+        <v>12.33498711699026</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>12.8549862049123</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>12.64200903498559</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>12.03939530666066</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>12.43886552188633</v>
+        <v>12.76016764261759</v>
       </c>
       <c r="C45">
-        <v>12.17413991823613</v>
+        <v>12.47338981669206</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>12.99591745720181</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>12.77894891443116</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>12.16557925573484</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>12.56673518270822</v>
+        <v>12.89695456307915</v>
       </c>
       <c r="C46">
-        <v>12.32935915228359</v>
+        <v>12.61306974997317</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>13.13915703895276</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>12.91796693954604</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>12.29421966465361</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>12.69656301072219</v>
+        <v>13.03490932006527</v>
       </c>
       <c r="C47">
-        <v>12.48675140731078</v>
+        <v>12.75397626858276</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>13.28473943990474</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>13.05907258632666</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>12.42534850855849</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12.82833040422132</v>
+        <v>13.17398640965256</v>
       </c>
       <c r="C48">
-        <v>12.6461328398519</v>
+        <v>12.89603825906879</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>13.43268151315593</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>13.20225707253229</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>12.5589813851093</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>12.96199702424395</v>
+        <v>13.31412280387335</v>
       </c>
       <c r="C49">
-        <v>12.80728294435248</v>
+        <v>13.03916194138752</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>13.58297858265961</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>13.34749059447097</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>12.69511533959017</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>13.09749826970023</v>
+        <v>13.45523657985875</v>
       </c>
       <c r="C50">
-        <v>12.96994327741197</v>
+        <v>13.18322868274841</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>13.735599249678</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>13.49471873989258</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>12.83372596898046</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>13.23474249106511</v>
+        <v>13.59722553507727</v>
       </c>
       <c r="C51">
-        <v>13.1338169399447</v>
+        <v>13.32809300826833</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>13.89047876464328</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>13.64385852953232</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>12.97476414869857</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>13.37360802283457</v>
+        <v>13.73996580858089</v>
       </c>
       <c r="C52">
-        <v>13.29856903506674</v>
+        <v>13.47358097500721</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>14.04751077949427</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>13.79479359812237</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>13.11815216182579</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>13.51426970713555</v>
+        <v>13.8835206052059</v>
       </c>
       <c r="C53">
-        <v>13.46401135749606</v>
+        <v>13.61964751497114</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>14.20687628461105</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>13.94770114930927</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>13.26407641801651</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>13.65810564657433</v>
+        <v>14.02871780071572</v>
       </c>
       <c r="C54">
-        <v>13.63057854198057</v>
+        <v>13.76680254406348</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>14.36996561193265</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>14.10396297397547</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>13.41381103468368</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>13.80655898761202</v>
+        <v>14.17642696313117</v>
       </c>
       <c r="C55">
-        <v>13.79865181953278</v>
+        <v>13.91554950626305</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>14.53819017360807</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>14.26501341337791</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>13.5687021226876</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>13.96077326407949</v>
+        <v>14.32733028773362</v>
       </c>
       <c r="C56">
-        <v>13.96837321284534</v>
+        <v>14.06621460676224</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>14.71258253506254</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>14.43195928931717</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>13.72983073311962</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>14.12158193153224</v>
+        <v>14.48192065223025</v>
       </c>
       <c r="C57">
-        <v>14.13966787153171</v>
+        <v>14.2189506813575</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>14.89375556536569</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>14.60555322595638</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>13.89798790979101</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14.28949845061866</v>
+        <v>14.64050017488276</v>
       </c>
       <c r="C58">
-        <v>14.31227253949537</v>
+        <v>14.37374604807793</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>15.08187190787889</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>14.78616733492752</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>14.07364788554212</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>14.46471141096301</v>
+        <v>14.803180876187</v>
       </c>
       <c r="C59">
-        <v>14.48576924661002</v>
+        <v>14.53043850971321</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>15.27663363062533</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>14.97377468514558</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>14.25694213043955</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>14.64708674449786</v>
+        <v>14.96988861653207</v>
       </c>
       <c r="C60">
-        <v>14.65962182766906</v>
+        <v>14.68873420142125</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>15.47730133777562</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>15.16794428201561</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>14.44764240187446</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>14.8361787374289</v>
+        <v>15.14037073103363</v>
       </c>
       <c r="C61">
-        <v>14.83321383224288</v>
+        <v>14.84823043134748</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>15.68274813922028</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>15.36785658089129</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>14.64515472677936</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>15.0312520553417</v>
+        <v>15.31420803076712</v>
       </c>
       <c r="C62">
-        <v>15.00588531753095</v>
+        <v>15.00844119363327</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>15.89154617685286</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>15.57234521711866</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>14.84853370379266</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>15.23131573037142</v>
+        <v>15.49083166549605</v>
       </c>
       <c r="C63">
-        <v>15.17696649393717</v>
+        <v>15.16882373707743</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>16.1020761952581</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>15.77996647587831</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>15.05652175377051</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>15.43516906866361</v>
+        <v>15.66954508160796</v>
       </c>
       <c r="C64">
-        <v>15.34580659432545</v>
+        <v>15.32880451397511</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>16.31264479894376</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>15.98909252387169</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>15.26761570505849</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>15.6414578989995</v>
+        <v>15.84955079189958</v>
       </c>
       <c r="C65">
-        <v>15.51179681257964</v>
+        <v>15.4878029894354</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>16.52159304092351</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>16.19801826186225</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>15.4801570847268</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>15.84873786562079</v>
+        <v>16.02998123824476</v>
       </c>
       <c r="C66">
-        <v>15.67438694829108</v>
+        <v>15.64525213566818</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>16.72738358234548</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>16.40506754839098</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>15.69243581491036</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>16.05554013041657</v>
+        <v>16.20993239764887</v>
       </c>
       <c r="C67">
-        <v>15.8330958807691</v>
+        <v>15.80061499403711</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>16.92866045913313</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>16.60868465057821</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>15.90279288170124</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>16.26043427770884</v>
+        <v>16.38849806461072</v>
       </c>
       <c r="C68">
-        <v>15.98751649460664</v>
+        <v>15.95339690196961</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>17.12428055323591</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>16.8075007988465</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>16.10970734619726</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>16.4620832618305</v>
+        <v>16.56480259112924</v>
       </c>
       <c r="C69">
-        <v>16.13731611042532</v>
+        <v>16.10315353437202</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>17.31332164763331</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>17.00037216739209</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>16.3118574460911</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>16.65928640649395</v>
+        <v>16.73802960504741</v>
       </c>
       <c r="C70">
-        <v>16.28223343613801</v>
+        <v>16.24949539108569</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>17.49507377254624</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>17.18639128854433</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>16.50815253032843</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>16.8510082289225</v>
+        <v>16.90744468748653</v>
       </c>
       <c r="C71">
-        <v>16.42207316424092</v>
+        <v>16.39208918430401</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>17.66901961257377</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>17.36487801268873</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>16.69773861589957</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>17.03639287903225</v>
+        <v>17.07241070905877</v>
       </c>
       <c r="C72">
-        <v>16.55669915774804</v>
+        <v>16.53065682827172</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>17.83480979126302</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>17.53535727966671</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>16.87998451596192</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>17.21476554410263</v>
+        <v>17.23239557109842</v>
       </c>
       <c r="C73">
-        <v>16.68602703116751</v>
+        <v>16.6649727233989</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>17.99223665144525</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>17.69753025569216</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>17.05445615474037</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>17.38562355571691</v>
+        <v>17.38697295724061</v>
       </c>
       <c r="C74">
-        <v>16.81001667750599</v>
+        <v>16.79485989682789</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>18.14120915145996</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>17.85124378106214</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>17.22088584353461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>17.54862040123206</v>
+        <v>17.53581745831881</v>
       </c>
       <c r="C75">
-        <v>16.9286651449273</v>
+        <v>16.92018548637892</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>18.28173004315527</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>17.99646144173218</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>17.37914129806042</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>17.7035457600614</v>
+        <v>17.67869585124571</v>
       </c>
       <c r="C76">
-        <v>17.04200015750718</v>
+        <v>17.04085598092708</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>18.41387607428954</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>18.13323781519895</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>17.5291971183441</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>17.8503039913966</v>
+        <v>17.81545609963243</v>
       </c>
       <c r="C77">
-        <v>17.15007433115544</v>
+        <v>17.15681242053958</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>18.53778124407154</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>18.26169664944227</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>17.67111023795064</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>17.98889319970554</v>
+        <v>17.94601556884435</v>
       </c>
       <c r="C78">
-        <v>17.25296010020755</v>
+        <v>17.26802579487959</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>18.6536229099157</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>18.38201297883746</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>17.80499936895107</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>18.11938600753022</v>
+        <v>18.07034946990938</v>
       </c>
       <c r="C79">
-        <v>17.35074550025551</v>
+        <v>17.37449278034913</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>18.76161045622109</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>18.49439871559384</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>17.93102860503894</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>18.24191270287958</v>
+        <v>18.18848013312312</v>
       </c>
       <c r="C80">
-        <v>17.44353059515094</v>
+        <v>17.47623183857354</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>18.86197615507494</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>18.59909131367468</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>18.04939459653054</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>18.35664685203185</v>
+        <v>18.30046757760368</v>
       </c>
       <c r="C81">
-        <v>17.53142444247757</v>
+        <v>17.57327967949675</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>18.95496786760173</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>18.69634495052956</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>18.16031629281284</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>18.46379362918827</v>
+        <v>18.40640130788468</v>
       </c>
       <c r="C82">
-        <v>17.6145426394833</v>
+        <v>17.665688157576</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>19.04084326329841</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>18.78642370973141</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>18.26402717183573</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>18.56358030630089</v>
+        <v>18.50639350860265</v>
       </c>
       <c r="C83">
-        <v>17.69300533124744</v>
+        <v>17.75352160298742</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>19.11986528962626</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>18.86959645532073</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>18.36076938161909</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>18.6562486984068</v>
+        <v>18.60057343750583</v>
       </c>
       <c r="C84">
-        <v>17.76693556910255</v>
+        <v>17.83685447684674</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>19.19229860815615</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>18.9461329376678</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>18.45078922543624</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>18.74204923925703</v>
+        <v>18.6890828519555</v>
       </c>
       <c r="C85">
-        <v>17.83645799686527</v>
+        <v>17.91576930657821</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>19.25840682395682</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>19.01630088346983</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>18.53433382273581</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>18.82123676933356</v>
+        <v>18.772072298738</v>
       </c>
       <c r="C86">
-        <v>17.9016978147504</v>
+        <v>17.99035496844945</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>19.31845080640424</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>19.0803638684868</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>18.61164861490451</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>18.89406578678859</v>
+        <v>18.8496977767704</v>
       </c>
       <c r="C87">
-        <v>17.96277988321306</v>
+        <v>18.06070468879834</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>19.37268545759051</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>19.13857968748024</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>18.68297546860661</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>18.96078984102284</v>
+        <v>18.92211901646258</v>
       </c>
       <c r="C88">
-        <v>18.01982808548819</v>
+        <v>18.12691560129193</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>19.42136126435996</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>19.19119938181957</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>18.74855147038463</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>19.0216582173164</v>
+        <v>18.98949734782768</v>
       </c>
       <c r="C89">
-        <v>18.07296489417156</v>
+        <v>18.18908740312429</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>19.46472129939225</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>19.23846662657851</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>18.80860796677108</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>19.07691503204694</v>
+        <v>19.05199434827866</v>
       </c>
       <c r="C90">
-        <v>18.12231103147778</v>
+        <v>18.24732160539325</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>19.50300157004103</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>19.28061722799482</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>18.86336982579521</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>19.12679799748863</v>
+        <v>19.10977064415447</v>
       </c>
       <c r="C91">
-        <v>18.1679849456</v>
+        <v>18.30172071359262</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>19.536430273632</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>19.31787845614481</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>18.91305511525485</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>19.17153786973486</v>
+        <v>19.16298504717513</v>
       </c>
       <c r="C92">
-        <v>18.21010266124268</v>
+        <v>18.35238758228757</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>19.56522751882429</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>19.35046909833901</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>18.95787488901936</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>19.21135795410234</v>
+        <v>19.2117938967756</v>
       </c>
       <c r="C93">
-        <v>18.24877763961305</v>
+        <v>18.39942487949634</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>19.58960539739908</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>19.37859958767262</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>18.99803274093424</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>19.24647385711087</v>
+        <v>19.25635045359001</v>
       </c>
       <c r="C94">
-        <v>18.28412064900981</v>
+        <v>18.44293467231448</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>19.60976789503129</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>19.40247204858192</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>19.03372499330821</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>19.27709336538765</v>
+        <v>19.29680460047607</v>
       </c>
       <c r="C95">
-        <v>18.31623968014706</v>
+        <v>18.48301807867404</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>19.62591092475654</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>19.42228036547329</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>19.06514078248872</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>19.30341637781199</v>
+        <v>19.33330255586513</v>
       </c>
       <c r="C96">
-        <v>18.34523988125727</v>
+        <v>18.51977493750555</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>19.63822242594497</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>19.43821034884024</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>19.09246208876704</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>19.32563496793141</v>
+        <v>19.36598666603472</v>
       </c>
       <c r="C97">
-        <v>18.37122354696939</v>
+        <v>18.5533035793335</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>19.64688250990337</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>19.4504399443215</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>19.11586385711731</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>19.34393351460281</v>
+        <v>19.39499529972009</v>
       </c>
       <c r="C98">
-        <v>18.39429010716549</v>
+        <v>18.58370067253222</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>19.65206364785243</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>19.45913946676613</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>19.13551413927163</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>19.35848890105317</v>
+        <v>19.4204628023047</v>
       </c>
       <c r="C99">
-        <v>18.41453614021661</v>
+        <v>18.61106104786089</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>19.65393089999936</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>19.46447190012911</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>19.15157428697304</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>19.36947065738302</v>
+        <v>19.44251941608574</v>
       </c>
       <c r="C100">
-        <v>18.43205539358491</v>
+        <v>18.63547758310104</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>19.65264213011297</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>19.46659313908711</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>19.16419915629074</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>19.37704118109439</v>
+        <v>19.4612912723961</v>
       </c>
       <c r="C101">
-        <v>18.44693881348535</v>
+        <v>18.65704114046675</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>19.64834823984373</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>19.46565218997921</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>19.17353732900772</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>19.38135594936305</v>
+        <v>19.4769004435367</v>
       </c>
       <c r="C102">
-        <v>18.45927461096798</v>
+        <v>18.67584052278383</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>19.64119341852244</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>19.46179145953977</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>19.17973131290314</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>19.38256373580262</v>
+        <v>19.48946498174684</v>
       </c>
       <c r="C103">
-        <v>18.46914829064875</v>
+        <v>18.69196237918402</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>19.63131535220423</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>19.45514702200294</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>19.18291773395353</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>19.38080688071258</v>
+        <v>19.49909902028364</v>
       </c>
       <c r="C104">
-        <v>18.47664271956919</v>
+        <v>18.7054912025569</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>19.61884551733441</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>19.44584887337989</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>19.18322755915458</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>19.37622154533411</v>
+        <v>19.50591282087692</v>
       </c>
       <c r="C105">
-        <v>18.48183820271111</v>
+        <v>18.71650929549366</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>19.60390937835081</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>19.43402119141977</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>19.18078628367435</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>19.36893791945718</v>
+        <v>19.51001284777639</v>
       </c>
       <c r="C106">
-        <v>18.48481250055032</v>
+        <v>18.72509677721819</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>19.58662664641989</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>19.41978253801009</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>19.17571416982567</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>19.35908047839535</v>
+        <v>19.51150187786437</v>
       </c>
       <c r="C107">
-        <v>18.48564092438903</v>
+        <v>18.73133160543485</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>19.56711152614604</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>19.40324615530547</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>19.16812642101416</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>19.34676818524322</v>
+        <v>19.51047907482574</v>
       </c>
       <c r="C108">
-        <v>18.48439638785314</v>
+        <v>18.73528960190095</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>19.5454729383022</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>19.38452014393054</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>19.15813339284833</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>19.33211472317343</v>
+        <v>19.50704009334017</v>
       </c>
       <c r="C109">
-        <v>18.48114946941045</v>
+        <v>18.73704448212272</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>19.52181475382226</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>19.36370771775377</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>19.14584077967581</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>19.31522871661674</v>
+        <v>19.50127717671958</v>
       </c>
       <c r="C110">
-        <v>18.47596847704556</v>
+        <v>18.73666784209268</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>19.4962360228103</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>19.34090740368886</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>19.13134981345617</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>19.29621394709153</v>
+        <v>19.49327927147381</v>
       </c>
       <c r="C111">
-        <v>18.46891951862858</v>
+        <v>18.73422923022896</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>19.46883114941968</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>19.31621323180974</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>19.11475743188057</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>19.27516955582244</v>
+        <v>19.4831321098764</v>
       </c>
       <c r="C112">
-        <v>18.46006655356237</v>
+        <v>18.72979616073243</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>19.43969013636143</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>19.28971497801875</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>19.09615646930088</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>19.25219025094569</v>
+        <v>19.47091833825888</v>
       </c>
       <c r="C113">
-        <v>18.44947147356912</v>
+        <v>18.72343415028522</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>19.40889874012115</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>19.26149828386586</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>19.07563579542866</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>19.22736649664544</v>
+        <v>19.45671759491406</v>
       </c>
       <c r="C114">
-        <v>18.43719415027479</v>
+        <v>18.71520676369517</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>19.37653868424931</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>19.23164492217171</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>19.05328052213924</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>19.20078469279312</v>
+        <v>19.44060661355974</v>
       </c>
       <c r="C115">
-        <v>18.42329249983526</v>
+        <v>18.70517566567855</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>19.34268784834824</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>19.20023289820074</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>19.02917209602553</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>19.17252735536799</v>
+        <v>19.42265932606551</v>
       </c>
       <c r="C116">
-        <v>18.40782255329056</v>
+        <v>18.69340062716173</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>19.30742041338399</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>19.16733668349062</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>19.00338852180947</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>19.14267328909906</v>
+        <v>19.40294693765219</v>
       </c>
       <c r="C117">
-        <v>18.39083849194063</v>
+        <v>18.67993964449759</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>19.27080707713244</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>19.13302731256676</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>18.97600444276415</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>19.11129774198533</v>
+        <v>19.38153804005119</v>
       </c>
       <c r="C118">
-        <v>18.37239272712502</v>
+        <v>18.66484889135689</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>19.23291516323204</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>19.0973725916702</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>18.94709133761515</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>19.07847256730265</v>
+        <v>19.35849869035396</v>
       </c>
       <c r="C119">
-        <v>18.35253593927636</v>
+        <v>18.64818285792462</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>19.19380882383784</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>19.06043720578401</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>18.91671760129231</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>19.04426637967886</v>
+        <v>19.33389250103582</v>
       </c>
       <c r="C120">
-        <v>18.33131713380687</v>
+        <v>18.62999432340874</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>19.15354915412157</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>19.02228287853154</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>18.88494872267403</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>19.00874469185284</v>
+        <v>19.30778073129289</v>
       </c>
       <c r="C121">
-        <v>18.30878370731261</v>
+        <v>18.61033443764477</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>19.11219434560324</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>18.98296851351324</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>18.85184736784384</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>18.97197005488513</v>
+        <v>19.2802223584149</v>
       </c>
       <c r="C122">
-        <v>18.28498148245423</v>
+        <v>18.58925275793007</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>19.06979983421696</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>18.94255029147116</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>18.81747352708917</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>18.93400218305768</v>
+        <v>19.25127417932472</v>
       </c>
       <c r="C123">
-        <v>18.25995477615961</v>
+        <v>18.5667972779353</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>19.02641839439745</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>18.90108184748544</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>18.78188461623641</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>18.89489809779575</v>
+        <v>19.22099086627754</v>
       </c>
       <c r="C124">
-        <v>18.23374641927347</v>
+        <v>18.5430144911663</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>18.98210031056492</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>18.85861432207262</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>18.7451355806765</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>18.85471223788587</v>
+        <v>19.18942506689865</v>
       </c>
       <c r="C125">
-        <v>18.20639784357119</v>
+        <v>18.51794941915391</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>18.93689344426343</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>18.81519653922258</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>18.70727902388455</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>18.81349657071708</v>
+        <v>19.15662745439277</v>
       </c>
       <c r="C126">
-        <v>18.17794908792616</v>
+        <v>18.49164566076597</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>18.8908433901261</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>18.77087505266847</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>18.66836526786737</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>18.77130075740387</v>
+        <v>19.1226468192229</v>
       </c>
       <c r="C127">
-        <v>18.14843888295305</v>
+        <v>18.46414542888872</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>18.84399355434955</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>18.72569429988069</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>18.62844249915888</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>18.72817212455831</v>
+        <v>19.08753011959391</v>
       </c>
       <c r="C128">
-        <v>18.11790464898453</v>
+        <v>18.43548959415791</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>18.79638526967913</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>18.67969665976621</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>18.5875568075075</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>18.68415596293535</v>
+        <v>19.05132255964129</v>
       </c>
       <c r="C129">
-        <v>18.08638258502589</v>
+        <v>18.4057177299669</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>18.74805790105987</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>18.63292257268345</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>18.54575232456696</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>18.63929539035861</v>
+        <v>19.01406764924794</v>
       </c>
       <c r="C130">
-        <v>18.0539076703064</v>
+        <v>18.37486815179128</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>18.69904891489409</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>18.58541061901458</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>18.50307126423094</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>18.593631672802</v>
+        <v>18.97580726215459</v>
       </c>
       <c r="C131">
-        <v>18.02051372775055</v>
+        <v>18.34297795005074</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>18.64939400362562</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>18.53719759788305</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>18.45955404097566</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>18.54720411211958</v>
+        <v>18.93658170931629</v>
       </c>
       <c r="C132">
-        <v>17.98623345274268</v>
+        <v>18.31008301402808</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>18.59912713220846</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>18.48831863190761</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>18.41523931891296</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>18.50005029405835</v>
+        <v>18.89642977878965</v>
       </c>
       <c r="C133">
-        <v>17.95109844753193</v>
+        <v>18.27621809832912</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>18.54828065247461</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>18.43880720860892</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>18.3701641056582</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>18.45220604759563</v>
+        <v>18.85538881230785</v>
       </c>
       <c r="C134">
-        <v>17.91513926871406</v>
+        <v>18.24141683027873</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>18.49688535674304</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>18.38869529643449</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>18.32436381455725</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>18.40370560354306</v>
+        <v>18.81349473855702</v>
       </c>
       <c r="C135">
-        <v>17.87838544202338</v>
+        <v>18.20571176620023</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>18.44497056224299</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>18.33801337260926</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>18.27787233018636</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.35458163072994</v>
+        <v>18.77078214428841</v>
       </c>
       <c r="C136">
-        <v>17.84086552189595</v>
+        <v>18.16913440050734</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>18.39256418519536</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>18.28679052923621</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>18.23072208816616</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>18.30486531604301</v>
+        <v>18.7272843076008</v>
       </c>
       <c r="C137">
-        <v>17.80260709445684</v>
+        <v>18.13171522589567</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>18.33969279137693</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>18.23505450519641</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>18.18294411280606</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>18.25458644519305</v>
+        <v>18.6830332585367</v>
       </c>
       <c r="C138">
-        <v>17.7636368407933</v>
+        <v>18.093483736256</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>18.28638168503165</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>18.18283177252905</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>18.13456810862471</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>18.20377341666039</v>
+        <v>18.63805981876784</v>
       </c>
       <c r="C139">
-        <v>17.72398053466726</v>
+        <v>18.0544684850443</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>18.23265494228756</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>18.13014757885428</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>18.08562248386328</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>18.15245338343486</v>
+        <v>18.59239363587431</v>
       </c>
       <c r="C140">
-        <v>17.68366310547017</v>
+        <v>18.01469709142505</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>18.17853549306752</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>18.077026009825</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>18.03613443729237</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>18.10065221521984</v>
+        <v>18.54606325512694</v>
       </c>
       <c r="C141">
-        <v>17.64270863372005</v>
+        <v>17.97419628691543</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>18.1240451591028</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>18.02349004657389</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>17.98612998267272</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>18.0483946529739</v>
+        <v>18.49909615491277</v>
       </c>
       <c r="C142">
-        <v>17.60114040899134</v>
+        <v>17.93299193324419</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>18.06920471459147</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>17.96956160178109</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>17.93563402290484</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>17.99570426461076</v>
+        <v>18.4515187281145</v>
       </c>
       <c r="C143">
-        <v>17.55898093281584</v>
+        <v>17.89110905410755</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>18.01403393848171</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>17.91526159210073</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>17.8846703793565</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>17.94260358859847</v>
+        <v>18.40335644708938</v>
       </c>
       <c r="C144">
-        <v>17.51625195809607</v>
+        <v>17.84857186286429</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>17.95855165061822</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>17.86060995645143</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>17.83326185112992</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>17.88911410059929</v>
+        <v>18.35463379097462</v>
       </c>
       <c r="C145">
-        <v>17.47297451040878</v>
+        <v>17.80540378228498</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>17.9027757716181</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>17.80562572736891</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>17.78143025241391</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>17.83525632897825</v>
+        <v>18.30537426881461</v>
       </c>
       <c r="C146">
-        <v>17.42916890756816</v>
+        <v>17.76162747997818</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>17.84672334062211</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>17.75032704920531</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>17.72919645425237</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>17.78104984937446</v>
+        <v>18.25560059402211</v>
       </c>
       <c r="C147">
-        <v>17.38485479388336</v>
+        <v>17.71726487811698</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>17.79041060998446</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>17.69473123853941</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>17.67658043286893</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>17.72651335337564</v>
+        <v>18.20533454652624</v>
       </c>
       <c r="C148">
-        <v>17.34005114746142</v>
+        <v>17.67233719447118</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>17.7338530155346</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>17.63885480713213</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>17.62360129386182</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>17.67166468579814</v>
+        <v>18.1545970980898</v>
       </c>
       <c r="C149">
-        <v>17.29477632059108</v>
+        <v>17.62686494554745</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>17.67706526808289</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>17.58271349923331</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>17.57027732647764</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>17.61652086678034</v>
+        <v>18.10340846786219</v>
       </c>
       <c r="C150">
-        <v>17.24904804028904</v>
+        <v>17.58086798947347</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>17.62006141993809</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>17.52632233628396</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>17.51662600934491</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>17.56109816040869</v>
+        <v>18.05178803623548</v>
       </c>
       <c r="C151">
-        <v>17.20288345098229</v>
+        <v>17.53436552638692</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>17.56285472257037</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>17.46969567119959</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>17.46266409509289</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>17.50541206639368</v>
+        <v>17.99975451229615</v>
       </c>
       <c r="C152">
-        <v>17.15629911097837</v>
+        <v>17.48737614030749</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>17.50545791778985</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>17.41284713116548</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>17.40840760172176</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>17.44947740428637</v>
+        <v>17.94732588102175</v>
       </c>
       <c r="C153">
-        <v>17.10931103515383</v>
+        <v>17.43991779845795</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>17.44788308719231</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>17.35578979631987</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>17.35387183168986</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.39330829122227</v>
+        <v>17.89451941460846</v>
       </c>
       <c r="C154">
-        <v>17.06193469123145</v>
+        <v>17.39200789090427</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>17.39014167696308</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>17.29853612806614</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>17.29907149597184</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>17.33691822778564</v>
+        <v>17.84135177568826</v>
       </c>
       <c r="C155">
-        <v>17.01418503638874</v>
+        <v>17.3436632232718</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>17.33224466188283</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>17.24109793140326</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>17.24402060387971</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>17.2803200728032</v>
+        <v>17.78783897572608</v>
       </c>
       <c r="C156">
-        <v>16.96607652131722</v>
+        <v>17.29490006444251</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>17.27420242547684</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>17.18348657911143</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>17.18873256752533</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>17.22352612239154</v>
+        <v>17.7339964132326</v>
       </c>
       <c r="C157">
-        <v>16.91762311343797</v>
+        <v>17.24573416121144</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>17.21602486977041</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>17.12571286029713</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>17.13322028308255</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>17.16654809458286</v>
+        <v>17.67983893702662</v>
       </c>
       <c r="C158">
-        <v>16.86883830785133</v>
+        <v>17.19618072081361</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>17.15772143299176</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>17.06778704022378</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>17.07749598905898</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>17.10939718275305</v>
+        <v>17.625380789906</v>
       </c>
       <c r="C159">
-        <v>16.81973514290927</v>
+        <v>17.1462544586013</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>17.09930105510122</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>17.0097189725531</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>17.02157146348776</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>17.05208406678701</v>
+        <v>17.57063569986895</v>
       </c>
       <c r="C160">
-        <v>16.77032623565611</v>
+        <v>17.09596964516477</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>17.04077228776762</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>16.95151799689504</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>16.96545797341325</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16.99461893620395</v>
+        <v>17.51561688777039</v>
       </c>
       <c r="C161">
-        <v>16.72062377324756</v>
+        <v>17.04534005733945</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>16.98214325228611</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>16.89319304566753</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>16.90916624291924</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>16.93701152309947</v>
+        <v>17.46033702861636</v>
       </c>
       <c r="C162">
-        <v>16.67063950476572</v>
+        <v>16.9943789777715</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>16.92342166937171</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>16.83475264932695</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>16.85270658778651</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>16.87927110422927</v>
+        <v>17.40480836099094</v>
       </c>
       <c r="C163">
-        <v>16.620384838596</v>
+        <v>16.94309933363987</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>16.86461492048402</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>16.77620490240536</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>16.79608885837769</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>16.82140654603076</v>
+        <v>17.34904264475409</v>
       </c>
       <c r="C164">
-        <v>16.56987079682696</v>
+        <v>16.89151360585936</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>16.80572998116417</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>16.71755756664485</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>16.73932245534898</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>16.76342629516333</v>
+        <v>17.29305117269229</v>
       </c>
       <c r="C165">
-        <v>16.51910794667391</v>
+        <v>16.83963379868569</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>16.74677352369061</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>16.65881803315978</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>16.68241640987435</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>16.70533842775401</v>
+        <v>17.23684484041269</v>
       </c>
       <c r="C166">
-        <v>16.46810659950425</v>
+        <v>16.78747160404022</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>16.68775189883974</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>16.59999333364123</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>16.62537934180097</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>16.64715063520961</v>
+        <v>17.18043411005659</v>
       </c>
       <c r="C167">
-        <v>16.41687670196703</v>
+        <v>16.73503831242862</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>16.62867111658364</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>16.54109020991314</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>16.56821949613089</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>16.58887027212002</v>
+        <v>17.12382904582416</v>
       </c>
       <c r="C168">
-        <v>16.36542781602484</v>
+        <v>16.68234479787832</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>16.56953693265768</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>16.48211506390447</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>16.51094478882957</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>16.53050434388106</v>
+        <v>17.06703934817868</v>
       </c>
       <c r="C169">
-        <v>16.31376921262075</v>
+        <v>16.62940162160643</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>16.51035480264015</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>16.4230739979536</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>16.45356275135546</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>16.47205954510124</v>
+        <v>17.0100743210384</v>
       </c>
       <c r="C170">
-        <v>16.2619098685796</v>
+        <v>16.5762189942731</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>16.45112991231075</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>16.36397286139699</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>16.3960806133894</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>16.4135422585693</v>
+        <v>16.95294293705935</v>
       </c>
       <c r="C171">
-        <v>16.20985843500333</v>
+        <v>16.52280676914298</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>16.39186721554904</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>16.30481719322705</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>16.33850530275371</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>16.35495857606843</v>
+        <v>16.89565382809775</v>
       </c>
       <c r="C172">
-        <v>16.15762325963725</v>
+        <v>16.4691744828472</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>16.33257139811165</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>16.24561230172243</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>16.28084340607583</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>16.29631431255247</v>
+        <v>16.83821527467941</v>
       </c>
       <c r="C173">
-        <v>16.10521244074209</v>
+        <v>16.41533137523746</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>16.27324694071994</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>16.18636324869733</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>16.22310126320778</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>16.23761501192423</v>
+        <v>16.78063527018071</v>
       </c>
       <c r="C174">
-        <v>16.05263379214187</v>
+        <v>16.36128636939133</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>16.21389810072482</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>16.12707483387294</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>16.16528492778004</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>16.17886597048875</v>
+        <v>16.72292149261408</v>
       </c>
       <c r="C175">
-        <v>15.99989484044303</v>
+        <v>16.30704808481573</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>16.15452891347816</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>16.06775166241873</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>16.10740016880433</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>16.12007223398297</v>
+        <v>16.66508131741685</v>
       </c>
       <c r="C176">
-        <v>15.94700289223636</v>
+        <v>16.25262488525699</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>16.09514324000136</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>16.00839811419921</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>16.04945253286305</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>16.06123862389816</v>
+        <v>16.60712185994377</v>
       </c>
       <c r="C177">
-        <v>15.89396500320463</v>
+        <v>16.19802485116934</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>16.03574473752417</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>15.94901835550765</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>15.9914473118958</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>16.00236972379838</v>
+        <v>16.54904994758651</v>
       </c>
       <c r="C178">
-        <v>15.84078796428762</v>
+        <v>16.14325576549598</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>15.97633688706</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>15.88961637752736</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>15.93338956084387</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>15.94346992646569</v>
+        <v>16.49087215221009</v>
       </c>
       <c r="C179">
-        <v>15.7874783697547</v>
+        <v>16.08832519834797</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>15.91692301146232</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>15.83019596985751</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>15.87528413301091</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>15.88454342788101</v>
+        <v>16.43259480526921</v>
       </c>
       <c r="C180">
-        <v>15.7340425898674</v>
+        <v>16.03324046376943</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>15.85750624881531</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>15.77076074903803</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>15.81713565286672</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15.82559419114933</v>
+        <v>16.37422397582003</v>
       </c>
       <c r="C181">
-        <v>15.68048675780731</v>
+        <v>15.97800859201851</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>15.79808960455737</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>15.71131417460514</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>15.75894854983755</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>15.76662604253489</v>
+        <v>16.31576552132605</v>
       </c>
       <c r="C182">
-        <v>15.62681680794621</v>
+        <v>15.92263642655125</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>15.73867592977818</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>15.65185952131322</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>15.70072707113321</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>15.70764263908682</v>
+        <v>16.25722507102444</v>
       </c>
       <c r="C183">
-        <v>15.57303849158897</v>
+        <v>15.86713057546875</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>15.67926792715102</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>15.59239993262334</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>15.64247525453093</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>15.64864742889973</v>
+        <v>16.19860802758894</v>
       </c>
       <c r="C184">
-        <v>15.51915735262696</v>
+        <v>15.81149741249922</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>15.61986818119535</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>15.53293840052691</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>15.58419698463265</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.58964370422829</v>
+        <v>16.13991960402481</v>
       </c>
       <c r="C185">
-        <v>15.46517873441489</v>
+        <v>15.75574310930563</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>15.56047913727431</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>15.47347776253701</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>15.52589597241626</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>15.53063465069784</v>
+        <v>16.08116480568756</v>
       </c>
       <c r="C186">
-        <v>15.41110782545767</v>
+        <v>15.69987364210008</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>15.50110312502191</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>15.41402074189472</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>15.46757575048055</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>15.47162328130956</v>
+        <v>16.022348443244</v>
       </c>
       <c r="C187">
-        <v>15.35694963159368</v>
+        <v>15.64389478172826</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>15.44174236376153</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>15.35456992535928</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>15.40923971734725</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>15.41261243165107</v>
+        <v>15.96347515513396</v>
       </c>
       <c r="C188">
-        <v>15.30270896789557</v>
+        <v>15.58781210549174</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>15.38239895140483</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>15.29512777330191</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>15.35089111489227</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15.353604863567</v>
+        <v>15.90454938965967</v>
       </c>
       <c r="C189">
-        <v>15.24839051326203</v>
+        <v>15.53163102055836</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>15.32307489474863</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>15.23569664246511</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>15.29253303527876</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>15.29460319575407</v>
+        <v>15.84557543206488</v>
       </c>
       <c r="C190">
-        <v>15.19399878338072</v>
+        <v>15.47535675000907</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>15.26377209601075</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>15.17627876721602</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>15.23416844951734</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>15.23560988810779</v>
+        <v>15.78655740706725</v>
       </c>
       <c r="C191">
-        <v>15.13953812449115</v>
+        <v>15.41899432544733</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>15.20449235943501</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>15.11687628152855</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>15.17580018813737</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>15.17662732749959</v>
+        <v>15.7274992687155</v>
       </c>
       <c r="C192">
-        <v>15.08501275133348</v>
+        <v>15.362548639644</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>15.14523740879781</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>15.05749122318803</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>15.11743095812932</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>15.11765778054507</v>
+        <v>15.66840483292642</v>
       </c>
       <c r="C193">
-        <v>15.03042673746569</v>
+        <v>15.30602441843485</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>15.08600887246688</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>14.99812552162827</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>15.05906335583267</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>15.05870340042832</v>
+        <v>15.60927776511809</v>
       </c>
       <c r="C194">
-        <v>14.97578400874911</v>
+        <v>15.24942620823127</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>15.026808303902</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>14.93878102718288</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>15.00069985095479</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.99976624936779</v>
+        <v>15.55012158378811</v>
       </c>
       <c r="C195">
-        <v>14.92108835806968</v>
+        <v>15.19275843154499</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>14.96763718000317</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>14.87945949924712</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>14.94234281393825</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>14.94084830085555</v>
+        <v>15.49093968281605</v>
       </c>
       <c r="C196">
-        <v>14.86634346140914</v>
+        <v>15.13602535967324</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>14.90849689640587</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>14.82016260717207</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>14.88399451172914</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>14.88195142350216</v>
+        <v>15.43173531900843</v>
       </c>
       <c r="C197">
-        <v>14.81155286392528</v>
+        <v>15.0792311081561</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>14.84938878758602</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>14.76089195104144</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>14.82565710063211</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.82307738932977</v>
+        <v>15.37251162401637</v>
       </c>
       <c r="C198">
-        <v>14.75671997978722</v>
+        <v>15.02237966612308</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>14.79031411651284</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>14.70164904911305</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>14.76733265394166</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.76422791414675</v>
+        <v>15.31327161547197</v>
       </c>
       <c r="C199">
-        <v>14.70184812500583</v>
+        <v>14.96547489485806</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>14.73127408143682</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>14.64243534607886</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>14.70902314961463</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.70540462480409</v>
+        <v>15.25401818545984</v>
       </c>
       <c r="C200">
-        <v>14.64694049947414</v>
+        <v>14.90852051957685</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>14.67226982553491</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>14.58325222421865</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>14.65073047205309</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>14.64660905488519</v>
+        <v>15.194754122294</v>
       </c>
       <c r="C201">
-        <v>14.59200017788914</v>
+        <v>14.85152014006437</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>14.61330242693796</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>14.52410099172693</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>14.59245643193188</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.58784269046768</v>
+        <v>15.13548210673462</v>
       </c>
       <c r="C202">
-        <v>14.53703014998701</v>
+        <v>14.79447724676427</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>14.55437291516826</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>14.46498289929762</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>14.53420275408157</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.52910694444764</v>
+        <v>15.07620470919433</v>
       </c>
       <c r="C203">
-        <v>14.48203330034833</v>
+        <v>14.73739520939589</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>14.49548226471136</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>14.40589913874856</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>14.47597108546671</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>14.47040314027524</v>
+        <v>15.01692440948992</v>
       </c>
       <c r="C204">
-        <v>14.42701240496386</v>
+        <v>14.68027727743921</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>14.43663139289182</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>14.34685083779651</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>14.4177630062177</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>14.41173256230212</v>
+        <v>14.95764358828145</v>
       </c>
       <c r="C205">
-        <v>14.3719701528379</v>
+        <v>14.62312660598288</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>14.37782118205921</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>14.28783907719813</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>14.35958001902715</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>14.35309643120846</v>
+        <v>14.89836453132388</v>
       </c>
       <c r="C206">
-        <v>14.31690914491129</v>
+        <v>14.5659462425471</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>14.31905246963639</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>14.22886488298403</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>14.30142356345787</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>14.29449590247139</v>
+        <v>14.83908944232971</v>
       </c>
       <c r="C207">
-        <v>14.26183188758939</v>
+        <v>14.50873912068418</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>14.26032604612918</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>14.16992922834651</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>14.24329501709909</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>14.2359320789113</v>
+        <v>14.77982043450093</v>
       </c>
       <c r="C208">
-        <v>14.20674079925226</v>
+        <v>14.45150809187869</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>14.20164264380197</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>14.11103304477001</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>14.18519568861247</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>14.17740601821464</v>
+        <v>14.72055954088459</v>
       </c>
       <c r="C209">
-        <v>14.15163822475917</v>
+        <v>14.39425591035049</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>14.14300299015111</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>14.05217721083308</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>14.12712683555056</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>14.11891872313799</v>
+        <v>14.66130871888084</v>
       </c>
       <c r="C210">
-        <v>14.09652642549248</v>
+        <v>14.3369852282828</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>14.08440776989428</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>13.9933625640641</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>14.06908965725951</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.06047114187499</v>
+        <v>14.60206984329491</v>
       </c>
       <c r="C211">
-        <v>14.04140757762393</v>
+        <v>14.27969861855894</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>14.02585762396077</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>13.93458990737095</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>14.01108529487939</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>14.00206419005773</v>
+        <v>14.54284472262759</v>
       </c>
       <c r="C212">
-        <v>13.98628379440829</v>
+        <v>14.22239856994468</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>13.96735312382227</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>13.87586000569783</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>13.95311484433386</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.94369873699864</v>
+        <v>14.48363509227126</v>
       </c>
       <c r="C213">
-        <v>13.93115711510244</v>
+        <v>14.16508748206838</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>13.90889486861093</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>13.81717357519273</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>13.8951793492896</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.88537559990917</v>
+        <v>14.42444261301582</v>
       </c>
       <c r="C214">
-        <v>13.87602949851946</v>
+        <v>14.10776767463607</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>13.85048340965629</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>13.75853129474484</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>13.83727980454284</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.8270955703452</v>
+        <v>14.36526889218837</v>
       </c>
       <c r="C215">
-        <v>13.82090284844823</v>
+        <v>14.05044139646418</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>13.79211926303315</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>13.69993383136057</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>13.7794171642814</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.76885940004495</v>
+        <v>14.30611547431543</v>
       </c>
       <c r="C216">
-        <v>13.76577900145842</v>
+        <v>13.99311081741863</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>13.73380288867718</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>13.64138181608578</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>13.72159233172039</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.71066779568135</v>
+        <v>14.24698384284425</v>
       </c>
       <c r="C217">
-        <v>13.71065972560236</v>
+        <v>13.93577803000215</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>13.67553476444557</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>13.58287583531619</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>13.66380617259489</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.65252143699622</v>
+        <v>14.18787540140212</v>
       </c>
       <c r="C218">
-        <v>13.65554673082179</v>
+        <v>13.87844506549902</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>13.6173153290263</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>13.52441642275661</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>13.60605951769913</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.59442097319559</v>
+        <v>14.12879153286553</v>
       </c>
       <c r="C219">
-        <v>13.60044167220216</v>
+        <v>13.82111388505519</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>13.55914499421173</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>13.46600413317893</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>13.54835316135905</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.53636701751714</v>
+        <v>14.06973355960414</v>
       </c>
       <c r="C220">
-        <v>13.54534614446761</v>
+        <v>13.76378637678584</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>13.50102413376041</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>13.40763947912056</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>13.4906878513389</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13.47836015179022</v>
+        <v>14.01070275369829</v>
       </c>
       <c r="C221">
-        <v>13.49026168428074</v>
+        <v>13.70646437505859</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>13.44295312283597</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>13.34932294271301</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>13.43306429918112</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.42040093616288</v>
+        <v>13.95170028929045</v>
       </c>
       <c r="C222">
-        <v>13.43518978230442</v>
+        <v>13.64914965135619</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>13.38493230881211</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>13.29105495216059</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>13.37548320358103</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.36248990088572</v>
+        <v>13.89272735669998</v>
       </c>
       <c r="C223">
-        <v>13.38013187584585</v>
+        <v>13.59184391077625</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>13.32696201973743</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>13.23283595608716</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>13.31794522801044</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.304627544533</v>
+        <v>13.83378508204377</v>
       </c>
       <c r="C224">
-        <v>13.32508934649388</v>
+        <v>13.53454880827229</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>13.26904256281234</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>13.17466636654194</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>13.26045099685475</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.24681434926857</v>
+        <v>13.7748745507841</v>
       </c>
       <c r="C225">
-        <v>13.27006353611249</v>
+        <v>13.47726594333474</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>13.21117423394841</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>13.11654657434714</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>13.20300107732695</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.18905077214815</v>
+        <v>13.71599676239742</v>
       </c>
       <c r="C226">
-        <v>13.21505573887976</v>
+        <v>13.41999685760449</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>13.1533573125336</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>13.05847692968943</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>13.14559605875005</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.13133724118661</v>
+        <v>13.65715272765313</v>
       </c>
       <c r="C227">
-        <v>13.16006719841882</v>
+        <v>13.36274304210176</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>13.09559205962234</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>13.0004577891956</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>13.08823648844744</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.07367417041333</v>
+        <v>13.59834340229025</v>
       </c>
       <c r="C228">
-        <v>13.10509912095124</v>
+        <v>13.30550594130385</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>13.0378787027526</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>12.94248948293612</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>13.03092288856517</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.01606195217763</v>
+        <v>13.53956970590954</v>
       </c>
       <c r="C229">
-        <v>13.05015267099035</v>
+        <v>13.24828694839855</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>12.98021748180691</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>12.88457232431319</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>12.97365572118955</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.95850095603207</v>
+        <v>13.4808325021541</v>
       </c>
       <c r="C230">
-        <v>12.99522896952274</v>
+        <v>13.19108740713579</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>12.92260861461602</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>12.82670660612173</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>12.91643547138809</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.90099153431685</v>
+        <v>13.42213263988517</v>
       </c>
       <c r="C231">
-        <v>12.94032909889489</v>
+        <v>13.13390862147052</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>12.86505230537853</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>12.76889261145867</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>12.8592625872724</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.84353402417226</v>
+        <v>13.36347093193148</v>
       </c>
       <c r="C232">
-        <v>12.88545410711655</v>
+        <v>13.07675184978849</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>12.80754873865101</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>12.71113060844617</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>12.80213749700777</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.78612874377062</v>
+        <v>13.30484815850188</v>
       </c>
       <c r="C233">
-        <v>12.83060500379344</v>
+        <v>13.01961830348823</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>12.75009809846844</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>12.65342085247195</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>12.74506059055791</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.72877599298979</v>
+        <v>13.24626505759698</v>
       </c>
       <c r="C234">
-        <v>12.77578276048311</v>
+        <v>12.96250915922943</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>12.69270055488925</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>12.59576356719542</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>12.68803225597163</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.67147606073467</v>
+        <v>13.18772234674068</v>
       </c>
       <c r="C235">
-        <v>12.72098831974128</v>
+        <v>12.90542555301649</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>12.63535626599648</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>12.5381589777031</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>12.63105286094936</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.61422922006054</v>
+        <v>13.12922071700391</v>
       </c>
       <c r="C236">
-        <v>12.66622259013503</v>
+        <v>12.84836857739904</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>12.57806536728936</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>12.48060729931605</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>12.57412275441879</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.55703572603907</v>
+        <v>13.070760831157</v>
       </c>
       <c r="C237">
-        <v>12.61148644398953</v>
+        <v>12.79133929358116</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>12.52082800130858</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>12.42310873311473</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>12.51724226598707</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.49989582545865</v>
+        <v>13.01234331796432</v>
       </c>
       <c r="C238">
-        <v>12.55678072847542</v>
+        <v>12.73433872619959</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>12.46364429579255</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>12.36566346359081</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>12.46041171096964</v>
       </c>
     </row>
   </sheetData>
